--- a/stock_historical_data/1d/URJA.NS.xlsx
+++ b/stock_historical_data/1d/URJA.NS.xlsx
@@ -99813,7 +99813,9 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/URJA.NS.xlsx
+++ b/stock_historical_data/1d/URJA.NS.xlsx
@@ -100093,7 +100093,9 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
@@ -100147,7 +100149,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100201,7 +100205,9 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -100255,7 +100261,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100309,7 +100317,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/URJA.NS.xlsx
+++ b/stock_historical_data/1d/URJA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1783"/>
+  <dimension ref="A1:R1784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100321,6 +100321,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>22.18000030517578</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>22.39999961853027</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>21.84000015258789</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>21.84000015258789</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>3559011</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/URJA.NS.xlsx
+++ b/stock_historical_data/1d/URJA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1784"/>
+  <dimension ref="A1:R1785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100373,7 +100373,63 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>21.84000015258789</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>22</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>21.34000015258789</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>21.55999946594238</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>21.55999946594238</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>3180958</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/URJA.NS.xlsx
+++ b/stock_historical_data/1d/URJA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1785"/>
+  <dimension ref="A1:R1792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99917,7 +99917,7 @@
         <v>23</v>
       </c>
       <c r="O1776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1776" t="n">
         <v>0</v>
@@ -100253,7 +100253,7 @@
         <v>24</v>
       </c>
       <c r="O1782" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1782" t="n">
         <v>0</v>
@@ -100429,7 +100429,387 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>21.61000061035156</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>22.19000053405762</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>21.6299991607666</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>21.6299991607666</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>4424573</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>22.01000022888184</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>22.01000022888184</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>21.60000038146973</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>21.73999977111816</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>21.73999977111816</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>2721187</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>22</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>22.81999969482422</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>21.73999977111816</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>22.14999961853027</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>22.14999961853027</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>13379353</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>22.35000038146973</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>22.64999961853027</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>21.81999969482422</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>21.81999969482422</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>3917179</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>21.86000061035156</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>21.6299991607666</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>21.6299991607666</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>2389276</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>21.60000038146973</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>21.79999923706055</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>21.15999984741211</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>21.26000022888184</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>21.26000022888184</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>2282250</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>21.47999954223633</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>21.60000038146973</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>21.15999984741211</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>21.26000022888184</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>21.26000022888184</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>2129333</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/URJA.NS.xlsx
+++ b/stock_historical_data/1d/URJA.NS.xlsx
@@ -100485,7 +100485,9 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -100539,7 +100541,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100593,7 +100597,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100647,7 +100653,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100701,7 +100709,9 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100755,7 +100765,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100809,7 +100821,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/URJA.NS.xlsx
+++ b/stock_historical_data/1d/URJA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1792"/>
+  <dimension ref="A1:R1797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100825,6 +100825,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>21.34000015258789</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>21.39999961853027</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>21.04999923706055</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>2264315</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>21.11000061035156</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>21.23999977111816</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>2183280</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>21.11000061035156</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>21.22999954223633</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>2770649</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>21.19000053405762</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>21.23999977111816</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>2103034</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>21.27000045776367</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>20.79999923706055</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>21.04999923706055</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>21.04999923706055</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>3360052</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/URJA.NS.xlsx
+++ b/stock_historical_data/1d/URJA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1797"/>
+  <dimension ref="A1:R1806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100877,7 +100877,9 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100931,7 +100933,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100985,7 +100989,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -101039,7 +101045,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101093,7 +101101,495 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>21.15999984741211</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>21.29999923706055</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>20.84000015258789</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>20.84000015258789</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>3914564</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>20.79000091552734</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>21.20000076293945</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>20.45000076293945</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>20.90999984741211</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>20.90999984741211</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>3156478</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>21.20999908447266</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>21.20999908447266</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>2981860</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>21.07999992370605</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>20.79000091552734</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>20.79000091552734</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>2114040</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>20.88999938964844</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>20.96999931335449</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>20.64999961853027</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>20.64999961853027</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>2663933</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>21.35000038146973</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>20.85000038146973</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>20.85000038146973</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>3173910</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>21.07999992370605</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>21.84000015258789</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>4524488</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>21.47999954223633</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>21.47999954223633</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>20.85000038146973</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>20.85000038146973</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>3280668</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>20.85000038146973</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>20.97999954223633</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>20.39999961853027</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>2896516</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/URJA.NS.xlsx
+++ b/stock_historical_data/1d/URJA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1806"/>
+  <dimension ref="A1:R1816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -101157,7 +101157,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101211,7 +101213,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101265,7 +101269,9 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
@@ -101319,7 +101325,9 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -101373,7 +101381,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101427,7 +101437,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101481,7 +101493,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101535,7 +101549,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101589,7 +101605,549 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>20.92000007629395</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>20.61000061035156</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>20.61000061035156</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>2282953</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>20.92000007629395</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>21.20000076293945</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>20.01000022888184</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>4932837</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>20.8799991607666</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>21.69000053405762</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>20.79999923706055</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>21.69000053405762</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>21.69000053405762</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>5974457</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>21.70000076293945</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>22.77000045776367</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>21.68000030517578</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>22.77000045776367</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>22.77000045776367</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>13361973</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>23.1299991607666</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>23.56999969482422</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>21.81999969482422</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>21.86000061035156</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>21.86000061035156</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>9157012</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>22.29999923706055</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>22.45000076293945</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>21.60000038146973</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>21.90999984741211</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>21.90999984741211</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>6031987</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>22.06999969482422</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>21.64999961853027</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>21.71999931335449</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>21.71999931335449</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>3488163</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>20.90999984741211</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>20.90999984741211</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>21.59000015258789</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>21.59000015258789</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>4931726</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>21.72999954223633</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>21.84000015258789</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>21.14999961853027</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>2865848</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>20.98999977111816</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>21.48999977111816</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>20.54999923706055</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>2626481</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/URJA.NS.xlsx
+++ b/stock_historical_data/1d/URJA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1816"/>
+  <dimension ref="A1:R1821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -101661,7 +101661,9 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
@@ -101707,7 +101709,7 @@
         <v>30</v>
       </c>
       <c r="O1808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1808" t="n">
         <v>0</v>
@@ -101715,7 +101717,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101769,7 +101773,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101823,7 +101829,9 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101869,7 +101877,7 @@
         <v>30</v>
       </c>
       <c r="O1811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1811" t="n">
         <v>0</v>
@@ -101877,7 +101885,9 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -101931,7 +101941,9 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101985,7 +101997,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -102039,7 +102053,9 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
@@ -102093,7 +102109,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102147,7 +102165,279 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>20.79999923706055</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>20.92000007629395</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>20.20000076293945</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>20.35000038146973</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>20.35000038146973</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>3804836</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>20.29999923706055</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>21.29000091552734</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>20.14999961853027</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>20.26000022888184</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>20.26000022888184</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>2155297</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>20.94000053405762</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>21.29000091552734</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>20.3799991607666</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>2972128</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>21.32999992370605</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>20.54999923706055</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>20.64999961853027</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>20.64999961853027</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>2726905</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>20.94000053405762</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>20.71999931335449</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>20.71999931335449</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>1876410</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/URJA.NS.xlsx
+++ b/stock_historical_data/1d/URJA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1821"/>
+  <dimension ref="A1:R1825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -102221,7 +102221,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102275,7 +102277,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102329,7 +102333,9 @@
       <c r="Q1819" t="n">
         <v>1</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -102383,7 +102389,9 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
@@ -102437,7 +102445,225 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>20.39999961853027</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>20.63999938964844</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>20.63999938964844</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>2617734</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>20.69000053405762</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>20.71999931335449</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>20.10000038146973</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>20.23999977111816</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>20.23999977111816</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>2455659</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>20.38999938964844</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>19.76000022888184</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>20.03000068664551</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>20.03000068664551</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>2013867</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>20.03000068664551</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>20.42000007629395</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>20.03000068664551</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>20.1200008392334</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>20.1200008392334</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>1557674</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/URJA.NS.xlsx
+++ b/stock_historical_data/1d/URJA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1825"/>
+  <dimension ref="A1:R1830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102501,7 +102501,9 @@
       <c r="Q1822" t="n">
         <v>2</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
@@ -102555,7 +102557,9 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -102609,7 +102613,9 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
@@ -102663,7 +102669,279 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>21.43000030517578</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>20.90999984741211</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>22.1299991607666</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>15054709</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>22.95000076293945</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>24.34000015258789</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>24.05999946594238</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>24.05999946594238</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>41196252</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>24.54000091552734</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>25.45000076293945</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>23.02000045776367</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>23.48999977111816</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>23.48999977111816</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>24257748</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>23.64999961853027</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>23.94000053405762</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>22.20000076293945</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>22.47999954223633</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>22.47999954223633</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>10789132</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>22.57999992370605</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>23.35000038146973</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>22.47999954223633</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>22.76000022888184</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>22.76000022888184</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>7729692</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
